--- a/기획서/1 스테이지 LBCD 보스맵 기획서.xlsx
+++ b/기획서/1 스테이지 LBCD 보스맵 기획서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\SA창동\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556C64B1-12F3-4A5C-91D0-BB1330F0CBAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167FA0E6-D8BE-48B6-BEAC-A6375704A69C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0961D0F3-E9EC-4A07-A247-96B6E49F2FA5}"/>
   </bookViews>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상자 오브젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 23.11.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +117,10 @@
   </si>
   <si>
     <t>구강기 인격 조각 1개, 항문기 인격 조각 1개, 랜덤 아이템 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치 오브젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,12 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +631,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1807,148 +1807,148 @@
     </row>
     <row r="6" spans="3:12">
       <c r="C6" s="1"/>
-      <c r="D6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="D6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="3:12">
       <c r="C7" s="1"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="3:12">
       <c r="C8" s="1"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="3:12">
       <c r="C9" s="1"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="3:12">
       <c r="C10" s="1"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="1"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="3:12">
       <c r="C12" s="1"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="3:12">
       <c r="C13" s="1"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="3:12">
       <c r="C14" s="1"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="3:12">
       <c r="C15" s="1"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="3:12">
       <c r="C16" s="1"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" s="1"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="3:12">
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2117,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE66846B-EAF3-4256-9146-2A2014FCC036}">
   <dimension ref="A1:BE51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BB16" sqref="BB16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="BE8" sqref="BE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2340,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="BB2" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD2" s="22"/>
       <c r="BE2" s="21" t="s">
@@ -2405,11 +2405,11 @@
         <v>4</v>
       </c>
       <c r="BB3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD3" s="38"/>
+        <v>15</v>
+      </c>
+      <c r="BD3" s="36"/>
       <c r="BE3" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -2470,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="BB4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" s="17"/>
       <c r="BE4" s="21" t="s">
@@ -2600,13 +2600,13 @@
         <v>7</v>
       </c>
       <c r="BB6" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE6" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="BE6" s="21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:57">
@@ -2667,11 +2667,11 @@
         <v>8</v>
       </c>
       <c r="BB7" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD7" s="24"/>
       <c r="BE7" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -2730,7 +2730,7 @@
       <c r="AY8" s="8"/>
       <c r="BD8" s="20"/>
       <c r="BE8" s="21" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -3019,32 +3019,32 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
@@ -3074,32 +3074,32 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
@@ -3129,32 +3129,32 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
@@ -3184,32 +3184,32 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="23"/>
       <c r="U17" s="27"/>
       <c r="V17" s="25"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -3239,32 +3239,32 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="14"/>
       <c r="K18" s="23"/>
       <c r="L18" s="27"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="32"/>
       <c r="U18" s="29"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
       <c r="AC18" s="23"/>
       <c r="AD18" s="27"/>
       <c r="AE18" s="25"/>
       <c r="AF18" s="14"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
@@ -3294,34 +3294,34 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
       <c r="U19" s="24"/>
       <c r="V19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W19" s="14"/>
       <c r="X19" s="23"/>
       <c r="Y19" s="27"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="34"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="32"/>
       <c r="AD19" s="28"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
@@ -3339,11 +3339,11 @@
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
       <c r="AY19" s="8"/>
-      <c r="BA19" s="32"/>
-      <c r="BB19" s="32"/>
-      <c r="BC19" s="32"/>
-      <c r="BD19" s="32"/>
-      <c r="BE19" s="32"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
     </row>
     <row r="20" spans="1:57">
       <c r="A20">
@@ -3356,32 +3356,32 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="34"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="32"/>
       <c r="Y20" s="28"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="34"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="32"/>
       <c r="AD20" s="29"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
@@ -3399,11 +3399,11 @@
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
       <c r="AY20" s="8"/>
-      <c r="BA20" s="32"/>
-      <c r="BB20" s="32"/>
-      <c r="BC20" s="32"/>
-      <c r="BD20" s="32"/>
-      <c r="BE20" s="32"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
     </row>
     <row r="21" spans="1:57">
       <c r="A21">
@@ -3416,36 +3416,36 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="24"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="14"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="34"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="32"/>
       <c r="Y21" s="28"/>
       <c r="Z21" s="25"/>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC21" s="14"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
@@ -3463,11 +3463,11 @@
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
       <c r="AY21" s="8"/>
-      <c r="BA21" s="32"/>
-      <c r="BB21" s="32"/>
-      <c r="BC21" s="32"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="32"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
     </row>
     <row r="22" spans="1:57">
       <c r="A22">
@@ -3480,32 +3480,32 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="23"/>
       <c r="S22" s="27"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="34"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="32"/>
       <c r="Y22" s="28"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
@@ -3523,11 +3523,11 @@
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="8"/>
-      <c r="BA22" s="32"/>
-      <c r="BB22" s="32"/>
-      <c r="BC22" s="32"/>
-      <c r="BD22" s="32"/>
-      <c r="BE22" s="32"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
     </row>
     <row r="23" spans="1:57">
       <c r="A23">
@@ -3540,32 +3540,32 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="34"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32"/>
       <c r="S23" s="28"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="34"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="32"/>
       <c r="Y23" s="29"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
@@ -3583,11 +3583,11 @@
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="8"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="32"/>
+      <c r="BA23" s="39"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="39"/>
+      <c r="BE23" s="39"/>
     </row>
     <row r="24" spans="1:57">
       <c r="A24">
@@ -3600,22 +3600,22 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="34"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="28"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="37"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="35"/>
       <c r="V24" s="27"/>
       <c r="W24" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="24"/>
@@ -3623,11 +3623,11 @@
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
@@ -3657,32 +3657,32 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="34"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="29"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="37"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="35"/>
       <c r="V25" s="28"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
@@ -3712,34 +3712,34 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="23"/>
       <c r="N26" s="27"/>
       <c r="O26" s="25"/>
       <c r="P26" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="24"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="37"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="35"/>
       <c r="V26" s="28"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
@@ -3769,32 +3769,32 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="28"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="37"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="35"/>
       <c r="V27" s="29"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
       <c r="AB27" s="13"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
@@ -3824,34 +3824,34 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="28"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
       <c r="U28" s="14"/>
       <c r="V28" s="24"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
       <c r="AC28" s="23"/>
       <c r="AD28" s="27"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
@@ -3881,32 +3881,32 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="34"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="32"/>
       <c r="N29" s="29"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="34"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="32"/>
       <c r="AD29" s="29"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
@@ -3936,32 +3936,32 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="29"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="34"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="32"/>
       <c r="AD30" s="29"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
